--- a/backend/backend-app/src/main/resources/xlsx/user-template.xlsx
+++ b/backend/backend-app/src/main/resources/xlsx/user-template.xlsx
@@ -571,7 +571,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -660,20 +660,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D34" si="0">SUM(B4:C4)</f>
+        <f t="shared" ref="D4:D67" si="0">SUM(B4:C4)</f>
         <v>15</v>
       </c>
       <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="10">
+        <v>9</v>
+      </c>
       <c r="G4" s="11">
         <f>SUM(E4:F4)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" ref="H4:H34" si="1">(D4-G4) + IF(H3 ="", H2, H3)</f>
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -683,20 +685,24 @@
         <v>44563</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11">
-        <f>SUM(E5:F5)</f>
-        <v>0</v>
+        <f t="shared" ref="G5:G68" si="2">SUM(E5:F5)</f>
+        <v>4</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -706,20 +712,24 @@
         <v>44564</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11">
-        <f>SUM(E6:F6)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -731,18 +741,18 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9">
-        <f>SUM(B7:B7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11">
-        <f>SUM(F7:F7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -760,12 +770,12 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11">
-        <f t="shared" ref="G8:G34" si="2">SUM(E8:F8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -788,7 +798,7 @@
       </c>
       <c r="H9" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -811,7 +821,7 @@
       </c>
       <c r="H10" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -834,7 +844,7 @@
       </c>
       <c r="H11" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -857,7 +867,7 @@
       </c>
       <c r="H12" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -880,7 +890,7 @@
       </c>
       <c r="H13" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -903,7 +913,7 @@
       </c>
       <c r="H14" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -926,7 +936,7 @@
       </c>
       <c r="H15" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -949,7 +959,7 @@
       </c>
       <c r="H16" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -972,7 +982,7 @@
       </c>
       <c r="H17" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -995,7 +1005,7 @@
       </c>
       <c r="H18" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1018,7 +1028,7 @@
       </c>
       <c r="H19" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1041,7 +1051,7 @@
       </c>
       <c r="H20" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1064,7 +1074,7 @@
       </c>
       <c r="H21" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1087,7 +1097,7 @@
       </c>
       <c r="H22" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1099,7 +1109,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9">
-        <f>SUM(B23:C23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="10"/>
@@ -1110,7 +1120,7 @@
       </c>
       <c r="H23" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1133,7 +1143,7 @@
       </c>
       <c r="H24" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1156,7 +1166,7 @@
       </c>
       <c r="H25" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1179,7 +1189,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1202,7 +1212,7 @@
       </c>
       <c r="H27" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1225,7 +1235,7 @@
       </c>
       <c r="H28" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1248,7 +1258,7 @@
       </c>
       <c r="H29" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1271,7 +1281,7 @@
       </c>
       <c r="H30" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1294,7 +1304,7 @@
       </c>
       <c r="H31" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1317,7 +1327,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1340,7 +1350,7 @@
       </c>
       <c r="H33" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1363,7 +1373,7 @@
       </c>
       <c r="H34" s="12">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1378,23 +1388,23 @@
       </c>
       <c r="C35" s="9">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="1"/>
@@ -1407,18 +1417,18 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9">
-        <f>SUM(B36:B36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="11">
-        <f>SUM(F36:F36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="12">
         <f t="shared" ref="H36:H63" si="4">(D36-G36) + IF(H35 ="", H34, H35)</f>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1430,18 +1440,18 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9">
-        <f t="shared" ref="D37:D51" si="5">SUM(B37:C37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="11">
-        <f t="shared" ref="G37:G63" si="6">SUM(E37:F37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1453,18 +1463,18 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1476,18 +1486,18 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1499,18 +1509,18 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1522,18 +1532,18 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1545,18 +1555,18 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1568,18 +1578,18 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1591,18 +1601,18 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1614,18 +1624,18 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1637,18 +1647,18 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1660,18 +1670,18 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1683,18 +1693,18 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1706,18 +1716,18 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1729,18 +1739,18 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1752,18 +1762,18 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1775,18 +1785,18 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9">
-        <f>SUM(B52:C52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1798,18 +1808,18 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9">
-        <f t="shared" ref="D53:D63" si="7">SUM(B53:C53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1821,18 +1831,18 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1844,18 +1854,18 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1867,18 +1877,18 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1890,18 +1900,18 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1913,18 +1923,18 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1936,18 +1946,18 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1959,18 +1969,18 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1982,18 +1992,18 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2005,18 +2015,18 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2028,18 +2038,18 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="12">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2049,27 +2059,27 @@
         <v>44593</v>
       </c>
       <c r="B64" s="9">
-        <f t="shared" ref="B64:G64" si="8">SUMPRODUCT(B33:B63,--(MONTH($A33:$A63)=MONTH($A64)))</f>
+        <f t="shared" ref="B64:G64" si="5">SUMPRODUCT(B33:B63,--(MONTH($A33:$A63)=MONTH($A64)))</f>
         <v>0</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D64" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="13"/>
@@ -2083,18 +2093,18 @@
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9">
-        <f t="shared" ref="D65:D67" si="9">SUM(B65:C65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="11">
-        <f>SUM(E65:F65)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" ref="H65:H95" si="10">(D65-G65) + IF(H64 ="", H63, H64)</f>
-        <v>110</v>
+        <f t="shared" ref="H65:H95" si="6">(D65-G65) + IF(H64 ="", H63, H64)</f>
+        <v>104</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2106,18 +2116,18 @@
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="11">
-        <f>SUM(E66:F66)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2129,18 +2139,18 @@
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="11">
-        <f>SUM(E67:F67)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2152,18 +2162,18 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9">
-        <f>SUM(B68:B68)</f>
+        <f t="shared" ref="D68:D131" si="7">SUM(B68:C68)</f>
         <v>0</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="11">
-        <f>SUM(F68:F68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2175,18 +2185,18 @@
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9">
-        <f t="shared" ref="D69:D83" si="11">SUM(B69:C69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G95" si="12">SUM(E69:F69)</f>
+        <f t="shared" ref="G69:G132" si="8">SUM(E69:F69)</f>
         <v>0</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2198,18 +2208,18 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2221,18 +2231,18 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2244,18 +2254,18 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2267,18 +2277,18 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2290,18 +2300,18 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2313,18 +2323,18 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2336,18 +2346,18 @@
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2359,18 +2369,18 @@
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2382,18 +2392,18 @@
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2405,18 +2415,18 @@
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2428,18 +2438,18 @@
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -2451,18 +2461,18 @@
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2474,18 +2484,18 @@
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2497,18 +2507,18 @@
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2520,18 +2530,18 @@
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9">
-        <f>SUM(B84:C84)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2543,18 +2553,18 @@
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9">
-        <f t="shared" ref="D85:D95" si="13">SUM(B85:C85)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2566,18 +2576,18 @@
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2589,18 +2599,18 @@
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2612,18 +2622,18 @@
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2635,18 +2645,18 @@
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2658,18 +2668,18 @@
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2681,18 +2691,18 @@
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -2704,18 +2714,18 @@
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2727,18 +2737,18 @@
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2750,18 +2760,18 @@
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2773,18 +2783,18 @@
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="6"/>
+        <v>104</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2794,27 +2804,27 @@
         <v>44621</v>
       </c>
       <c r="B96" s="9">
-        <f t="shared" ref="B96:G96" si="14">SUMPRODUCT(B65:B95,--(MONTH($A65:$A95)=MONTH($A96)))</f>
+        <f t="shared" ref="B96:G96" si="9">SUMPRODUCT(B65:B95,--(MONTH($A65:$A95)=MONTH($A96)))</f>
         <v>0</v>
       </c>
       <c r="C96" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D96" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E96" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F96" s="13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H96" s="13"/>
@@ -2828,18 +2838,18 @@
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9">
-        <f t="shared" ref="D97:D98" si="15">SUM(B97:C97)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="11">
-        <f>SUM(E97:F97)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" ref="H97:H126" si="16">(D97-G97) + IF(H96 ="", H95, H96)</f>
-        <v>110</v>
+        <f t="shared" ref="H97:H126" si="10">(D97-G97) + IF(H96 ="", H95, H96)</f>
+        <v>104</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -2851,18 +2861,18 @@
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="11">
-        <f>SUM(E98:F98)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -2874,18 +2884,18 @@
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9">
-        <f>SUM(B99:B99)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="11">
-        <f>SUM(F99:F99)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -2897,18 +2907,18 @@
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9">
-        <f t="shared" ref="D100:D114" si="17">SUM(B100:C100)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="11">
-        <f t="shared" ref="G100:G126" si="18">SUM(E100:F100)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -2920,18 +2930,18 @@
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2943,18 +2953,18 @@
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -2966,18 +2976,18 @@
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -2989,18 +2999,18 @@
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -3012,18 +3022,18 @@
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -3035,18 +3045,18 @@
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -3058,18 +3068,18 @@
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -3081,18 +3091,18 @@
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -3104,18 +3114,18 @@
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -3127,18 +3137,18 @@
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -3150,18 +3160,18 @@
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -3173,18 +3183,18 @@
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -3196,18 +3206,18 @@
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -3219,18 +3229,18 @@
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -3242,18 +3252,18 @@
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9">
-        <f>SUM(B115:C115)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -3265,18 +3275,18 @@
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9">
-        <f t="shared" ref="D116:D126" si="19">SUM(B116:C116)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -3288,18 +3298,18 @@
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H117" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -3311,18 +3321,18 @@
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H118" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -3334,18 +3344,18 @@
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H119" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -3357,18 +3367,18 @@
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H120" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -3380,18 +3390,18 @@
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H121" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -3403,18 +3413,18 @@
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H122" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -3426,18 +3436,18 @@
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H123" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -3449,18 +3459,18 @@
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H124" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -3472,18 +3482,18 @@
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -3495,18 +3505,18 @@
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H126" s="12">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -3516,27 +3526,27 @@
         <v>44652</v>
       </c>
       <c r="B127" s="9">
-        <f t="shared" ref="B127:G127" si="20">SUMPRODUCT(B96:B126,--(MONTH($A96:$A126)=MONTH($A127)))</f>
+        <f t="shared" ref="B127:G127" si="11">SUMPRODUCT(B96:B126,--(MONTH($A96:$A126)=MONTH($A127)))</f>
         <v>0</v>
       </c>
       <c r="C127" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D127" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E127" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F127" s="13">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H127" s="13"/>
@@ -3550,18 +3560,18 @@
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="9">
-        <f t="shared" ref="D128:D130" si="21">SUM(B128:C128)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="11">
-        <f>SUM(E128:F128)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H128" s="12">
-        <f t="shared" ref="H128:H158" si="22">(D128-G128) + IF(H127 ="", H126, H127)</f>
-        <v>110</v>
+        <f t="shared" ref="H128:H158" si="12">(D128-G128) + IF(H127 ="", H126, H127)</f>
+        <v>104</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -3573,18 +3583,18 @@
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="11">
-        <f>SUM(E129:F129)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -3596,18 +3606,18 @@
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="11">
-        <f>SUM(E130:F130)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H130" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -3619,18 +3629,18 @@
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="9">
-        <f>SUM(B131:B131)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="11">
-        <f>SUM(F131:F131)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -3642,18 +3652,18 @@
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="9">
-        <f t="shared" ref="D132:D146" si="23">SUM(B132:C132)</f>
+        <f t="shared" ref="D132:D195" si="13">SUM(B132:C132)</f>
         <v>0</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="11">
-        <f t="shared" ref="G132:G158" si="24">SUM(E132:F132)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -3665,18 +3675,18 @@
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="G133:G196" si="14">SUM(E133:F133)</f>
         <v>0</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -3688,18 +3698,18 @@
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -3711,18 +3721,18 @@
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -3734,18 +3744,18 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -3757,18 +3767,18 @@
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -3780,18 +3790,18 @@
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -3803,18 +3813,18 @@
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -3826,18 +3836,18 @@
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -3849,18 +3859,18 @@
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -3872,18 +3882,18 @@
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -3895,18 +3905,18 @@
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -3918,18 +3928,18 @@
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -3941,18 +3951,18 @@
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -3964,18 +3974,18 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -3987,18 +3997,18 @@
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="9">
-        <f>SUM(B147:C147)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -4010,18 +4020,18 @@
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="9">
-        <f t="shared" ref="D148:D158" si="25">SUM(B148:C148)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -4033,18 +4043,18 @@
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -4056,18 +4066,18 @@
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -4079,18 +4089,18 @@
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -4102,18 +4112,18 @@
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -4125,18 +4135,18 @@
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -4148,18 +4158,18 @@
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -4171,18 +4181,18 @@
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -4194,18 +4204,18 @@
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -4217,18 +4227,18 @@
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -4240,18 +4250,18 @@
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="22"/>
-        <v>110</v>
+        <f t="shared" si="12"/>
+        <v>104</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -4261,27 +4271,27 @@
         <v>44682</v>
       </c>
       <c r="B159" s="9">
-        <f t="shared" ref="B159:G159" si="26">SUMPRODUCT(B128:B158,--(MONTH($A128:$A158)=MONTH($A159)))</f>
+        <f t="shared" ref="B159:G159" si="15">SUMPRODUCT(B128:B158,--(MONTH($A128:$A158)=MONTH($A159)))</f>
         <v>0</v>
       </c>
       <c r="C159" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D159" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E159" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F159" s="13">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="11">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H159" s="13"/>
@@ -4295,18 +4305,18 @@
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="9">
-        <f t="shared" ref="D160:D161" si="27">SUM(B160:C160)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="11">
-        <f>SUM(E160:F160)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H160" s="12">
-        <f t="shared" ref="H160:H189" si="28">(D160-G160) + IF(H159 ="", H158, H159)</f>
-        <v>110</v>
+        <f t="shared" ref="H160:H189" si="16">(D160-G160) + IF(H159 ="", H158, H159)</f>
+        <v>104</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -4318,18 +4328,18 @@
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="11">
-        <f>SUM(E161:F161)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H161" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -4341,18 +4351,18 @@
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="9">
-        <f>SUM(B162:B162)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="11">
-        <f>SUM(F162:F162)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H162" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -4364,18 +4374,18 @@
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="9">
-        <f t="shared" ref="D163:D177" si="29">SUM(B163:C163)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="11">
-        <f t="shared" ref="G163:G189" si="30">SUM(E163:F163)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -4387,18 +4397,18 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -4410,18 +4420,18 @@
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H165" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -4433,18 +4443,18 @@
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H166" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -4456,18 +4466,18 @@
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H167" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -4479,18 +4489,18 @@
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H168" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -4502,18 +4512,18 @@
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H169" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -4525,18 +4535,18 @@
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H170" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -4548,18 +4558,18 @@
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H171" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -4571,18 +4581,18 @@
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H172" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -4594,18 +4604,18 @@
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H173" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -4617,18 +4627,18 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H174" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -4640,18 +4650,18 @@
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H175" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -4663,18 +4673,18 @@
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H176" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -4686,18 +4696,18 @@
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H177" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -4709,18 +4719,18 @@
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="9">
-        <f>SUM(B178:C178)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H178" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -4732,18 +4742,18 @@
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="9">
-        <f t="shared" ref="D179:D189" si="31">SUM(B179:C179)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H179" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -4755,18 +4765,18 @@
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H180" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -4778,18 +4788,18 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H181" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -4801,18 +4811,18 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H182" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -4824,18 +4834,18 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H183" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -4847,18 +4857,18 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H184" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -4870,18 +4880,18 @@
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H185" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -4893,18 +4903,18 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H186" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -4916,18 +4926,18 @@
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H187" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -4939,18 +4949,18 @@
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H188" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -4962,18 +4972,18 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H189" s="12">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>104</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -4983,27 +4993,27 @@
         <v>44713</v>
       </c>
       <c r="B190" s="9">
-        <f t="shared" ref="B190:G190" si="32">SUMPRODUCT(B159:B189,--(MONTH($A159:$A189)=MONTH($A190)))</f>
+        <f t="shared" ref="B190:G190" si="17">SUMPRODUCT(B159:B189,--(MONTH($A159:$A189)=MONTH($A190)))</f>
         <v>0</v>
       </c>
       <c r="C190" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="D190" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E190" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F190" s="13">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G190" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="11">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H190" s="13"/>
@@ -5017,18 +5027,18 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="9">
-        <f t="shared" ref="D191:D193" si="33">SUM(B191:C191)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="11">
-        <f>SUM(E191:F191)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H191" s="12">
-        <f t="shared" ref="H191:H221" si="34">(D191-G191) + IF(H190 ="", H189, H190)</f>
-        <v>110</v>
+        <f t="shared" ref="H191:H221" si="18">(D191-G191) + IF(H190 ="", H189, H190)</f>
+        <v>104</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -5040,18 +5050,18 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="11">
-        <f>SUM(E192:F192)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H192" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -5063,18 +5073,18 @@
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="11">
-        <f>SUM(E193:F193)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H193" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -5086,18 +5096,18 @@
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="9">
-        <f>SUM(B194:B194)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="11">
-        <f>SUM(F194:F194)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H194" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -5109,18 +5119,18 @@
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="9">
-        <f t="shared" ref="D195:D209" si="35">SUM(B195:C195)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="11">
-        <f t="shared" ref="G195:G221" si="36">SUM(E195:F195)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H195" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -5132,18 +5142,18 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="D196:D259" si="19">SUM(B196:C196)</f>
         <v>0</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H196" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -5155,18 +5165,18 @@
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="G197:G260" si="20">SUM(E197:F197)</f>
         <v>0</v>
       </c>
       <c r="H197" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -5178,18 +5188,18 @@
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H198" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -5201,18 +5211,18 @@
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H199" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -5224,18 +5234,18 @@
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H200" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -5247,18 +5257,18 @@
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H201" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -5270,18 +5280,18 @@
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H202" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -5293,18 +5303,18 @@
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H203" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5316,18 +5326,18 @@
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H204" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -5339,18 +5349,18 @@
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H205" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -5362,18 +5372,18 @@
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H206" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -5385,18 +5395,18 @@
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H207" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -5408,18 +5418,18 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H208" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -5431,18 +5441,18 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H209" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -5454,18 +5464,18 @@
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="9">
-        <f>SUM(B210:C210)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H210" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -5477,18 +5487,18 @@
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="9">
-        <f t="shared" ref="D211:D221" si="37">SUM(B211:C211)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H211" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -5500,18 +5510,18 @@
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H212" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -5523,18 +5533,18 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H213" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -5546,18 +5556,18 @@
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H214" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -5569,18 +5579,18 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H215" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -5592,18 +5602,18 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H216" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -5615,18 +5625,18 @@
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H217" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -5638,18 +5648,18 @@
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H218" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -5661,18 +5671,18 @@
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H219" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -5684,18 +5694,18 @@
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H220" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -5707,18 +5717,18 @@
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H221" s="12">
-        <f t="shared" si="34"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>104</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -5728,27 +5738,27 @@
         <v>44743</v>
       </c>
       <c r="B222" s="9">
-        <f t="shared" ref="B222:G222" si="38">SUMPRODUCT(B191:B221,--(MONTH($A191:$A221)=MONTH($A222)))</f>
+        <f t="shared" ref="B222:G222" si="21">SUMPRODUCT(B191:B221,--(MONTH($A191:$A221)=MONTH($A222)))</f>
         <v>0</v>
       </c>
       <c r="C222" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D222" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E222" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F222" s="13">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G222" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H222" s="13"/>
@@ -5762,18 +5772,18 @@
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="9">
-        <f t="shared" ref="D223:D225" si="39">SUM(B223:C223)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="11">
-        <f>SUM(E223:F223)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H223" s="12">
-        <f t="shared" ref="H223:H253" si="40">(D223-G223) + IF(H222 ="", H221, H222)</f>
-        <v>110</v>
+        <f t="shared" ref="H223:H253" si="22">(D223-G223) + IF(H222 ="", H221, H222)</f>
+        <v>104</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -5785,18 +5795,18 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
       <c r="G224" s="11">
-        <f>SUM(E224:F224)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H224" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -5808,18 +5818,18 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="11">
-        <f>SUM(E225:F225)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H225" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -5831,18 +5841,18 @@
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="9">
-        <f>SUM(B226:B226)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
       <c r="G226" s="11">
-        <f>SUM(F226:F226)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H226" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -5854,18 +5864,18 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="9">
-        <f t="shared" ref="D227:D241" si="41">SUM(B227:C227)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
       <c r="G227" s="11">
-        <f t="shared" ref="G227:G253" si="42">SUM(E227:F227)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H227" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -5877,18 +5887,18 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
       <c r="G228" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H228" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -5900,18 +5910,18 @@
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
       <c r="G229" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H229" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -5923,18 +5933,18 @@
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
       <c r="G230" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H230" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -5946,18 +5956,18 @@
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H231" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -5969,18 +5979,18 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H232" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -5992,18 +6002,18 @@
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H233" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -6015,18 +6025,18 @@
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H234" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -6038,18 +6048,18 @@
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H235" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -6061,18 +6071,18 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H236" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -6084,18 +6094,18 @@
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H237" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -6107,18 +6117,18 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H238" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -6130,18 +6140,18 @@
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H239" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -6153,18 +6163,18 @@
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H240" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -6176,18 +6186,18 @@
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H241" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -6199,18 +6209,18 @@
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="9">
-        <f>SUM(B242:C242)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H242" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -6222,18 +6232,18 @@
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="9">
-        <f t="shared" ref="D243:D253" si="43">SUM(B243:C243)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H243" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -6245,18 +6255,18 @@
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H244" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -6268,18 +6278,18 @@
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H245" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -6291,18 +6301,18 @@
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H246" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -6314,18 +6324,18 @@
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H247" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -6337,18 +6347,18 @@
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H248" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -6360,18 +6370,18 @@
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H249" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -6383,18 +6393,18 @@
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
       <c r="D250" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H250" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -6406,18 +6416,18 @@
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
       <c r="D251" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H251" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -6429,18 +6439,18 @@
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H252" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -6452,18 +6462,18 @@
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H253" s="12">
-        <f t="shared" si="40"/>
-        <v>110</v>
+        <f t="shared" si="22"/>
+        <v>104</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -6473,27 +6483,27 @@
         <v>44774</v>
       </c>
       <c r="B254" s="9">
-        <f t="shared" ref="B254:G254" si="44">SUMPRODUCT(B223:B253,--(MONTH($A223:$A253)=MONTH($A254)))</f>
+        <f t="shared" ref="B254:G254" si="23">SUMPRODUCT(B223:B253,--(MONTH($A223:$A253)=MONTH($A254)))</f>
         <v>0</v>
       </c>
       <c r="C254" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D254" s="9">
-        <f t="shared" si="44"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E254" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F254" s="13">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="G254" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G254" s="11">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H254" s="13"/>
@@ -6507,18 +6517,18 @@
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
       <c r="D255" s="9">
-        <f t="shared" ref="D255:D256" si="45">SUM(B255:C255)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="11">
-        <f>SUM(E255:F255)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H255" s="12">
-        <f t="shared" ref="H255:H284" si="46">(D255-G255) + IF(H254 ="", H253, H254)</f>
-        <v>110</v>
+        <f t="shared" ref="H255:H284" si="24">(D255-G255) + IF(H254 ="", H253, H254)</f>
+        <v>104</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -6530,18 +6540,18 @@
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="11">
-        <f>SUM(E256:F256)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H256" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -6553,18 +6563,18 @@
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
       <c r="D257" s="9">
-        <f>SUM(B257:B257)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="11">
-        <f>SUM(F257:F257)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H257" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -6576,18 +6586,18 @@
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="9">
-        <f t="shared" ref="D258:D272" si="47">SUM(B258:C258)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="11">
-        <f t="shared" ref="G258:G284" si="48">SUM(E258:F258)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H258" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -6599,18 +6609,18 @@
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H259" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -6622,18 +6632,18 @@
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="D260:D323" si="25">SUM(B260:C260)</f>
         <v>0</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H260" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -6645,18 +6655,18 @@
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
       <c r="D261" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="G261:G324" si="26">SUM(E261:F261)</f>
         <v>0</v>
       </c>
       <c r="H261" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -6668,18 +6678,18 @@
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H262" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -6691,18 +6701,18 @@
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H263" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -6714,18 +6724,18 @@
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
       <c r="D264" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H264" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -6737,18 +6747,18 @@
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
       <c r="D265" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H265" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -6760,18 +6770,18 @@
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
       <c r="D266" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H266" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -6783,18 +6793,18 @@
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H267" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -6806,18 +6816,18 @@
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H268" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -6829,18 +6839,18 @@
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H269" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -6852,18 +6862,18 @@
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H270" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -6875,18 +6885,18 @@
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H271" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -6898,18 +6908,18 @@
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H272" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -6921,18 +6931,18 @@
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
       <c r="D273" s="9">
-        <f>SUM(B273:C273)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H273" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -6944,18 +6954,18 @@
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="9">
-        <f t="shared" ref="D274:D284" si="49">SUM(B274:C274)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H274" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -6967,18 +6977,18 @@
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
       <c r="D275" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H275" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -6990,18 +7000,18 @@
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
       <c r="D276" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H276" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -7013,18 +7023,18 @@
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
       <c r="D277" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H277" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -7036,18 +7046,18 @@
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
       <c r="D278" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H278" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -7059,18 +7069,18 @@
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
       <c r="D279" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H279" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -7082,18 +7092,18 @@
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H280" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -7105,18 +7115,18 @@
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H281" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -7128,18 +7138,18 @@
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H282" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -7151,18 +7161,18 @@
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
       <c r="D283" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H283" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -7174,18 +7184,18 @@
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
       <c r="D284" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H284" s="12">
-        <f t="shared" si="46"/>
-        <v>110</v>
+        <f t="shared" si="24"/>
+        <v>104</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -7195,27 +7205,27 @@
         <v>44805</v>
       </c>
       <c r="B285" s="9">
-        <f t="shared" ref="B285:G285" si="50">SUMPRODUCT(B254:B284,--(MONTH($A254:$A284)=MONTH($A285)))</f>
+        <f t="shared" ref="B285:G285" si="27">SUMPRODUCT(B254:B284,--(MONTH($A254:$A284)=MONTH($A285)))</f>
         <v>0</v>
       </c>
       <c r="C285" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="D285" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E285" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F285" s="13">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="G285" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G285" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H285" s="13"/>
@@ -7229,18 +7239,18 @@
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
       <c r="D286" s="9">
-        <f t="shared" ref="D286:D288" si="51">SUM(B286:C286)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="11">
-        <f>SUM(E286:F286)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H286" s="12">
-        <f t="shared" ref="H286:H316" si="52">(D286-G286) + IF(H285 ="", H284, H285)</f>
-        <v>110</v>
+        <f t="shared" ref="H286:H316" si="28">(D286-G286) + IF(H285 ="", H284, H285)</f>
+        <v>104</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -7252,18 +7262,18 @@
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
       <c r="D287" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="11">
-        <f>SUM(E287:F287)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H287" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -7275,18 +7285,18 @@
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
       <c r="D288" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="11">
-        <f>SUM(E288:F288)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H288" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -7298,18 +7308,18 @@
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
       <c r="D289" s="9">
-        <f>SUM(B289:B289)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="11">
-        <f>SUM(F289:F289)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H289" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -7321,18 +7331,18 @@
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
       <c r="D290" s="9">
-        <f t="shared" ref="D290:D304" si="53">SUM(B290:C290)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="11">
-        <f t="shared" ref="G290:G316" si="54">SUM(E290:F290)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H290" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -7344,18 +7354,18 @@
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
       <c r="D291" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H291" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -7367,18 +7377,18 @@
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
       <c r="D292" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H292" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -7390,18 +7400,18 @@
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
       <c r="D293" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H293" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -7413,18 +7423,18 @@
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
       <c r="D294" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H294" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -7436,18 +7446,18 @@
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
       <c r="D295" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H295" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
@@ -7459,18 +7469,18 @@
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
       <c r="D296" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H296" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -7482,18 +7492,18 @@
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
       <c r="D297" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H297" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
@@ -7505,18 +7515,18 @@
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
       <c r="D298" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H298" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
@@ -7528,18 +7538,18 @@
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
       <c r="D299" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H299" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
@@ -7551,18 +7561,18 @@
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H300" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -7574,18 +7584,18 @@
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
       <c r="D301" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H301" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -7597,18 +7607,18 @@
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
       <c r="D302" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H302" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
@@ -7620,18 +7630,18 @@
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
       <c r="D303" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H303" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -7643,18 +7653,18 @@
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
       <c r="D304" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H304" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -7666,18 +7676,18 @@
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
       <c r="D305" s="9">
-        <f>SUM(B305:C305)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H305" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -7689,18 +7699,18 @@
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
       <c r="D306" s="9">
-        <f t="shared" ref="D306:D316" si="55">SUM(B306:C306)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H306" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -7712,18 +7722,18 @@
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
       <c r="D307" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H307" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -7735,18 +7745,18 @@
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
       <c r="D308" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H308" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -7758,18 +7768,18 @@
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
       <c r="D309" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H309" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -7781,18 +7791,18 @@
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H310" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -7804,18 +7814,18 @@
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
       <c r="D311" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H311" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -7827,18 +7837,18 @@
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
       <c r="D312" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H312" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -7850,18 +7860,18 @@
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
       <c r="D313" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H313" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -7873,18 +7883,18 @@
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
       <c r="D314" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H314" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -7896,18 +7906,18 @@
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
       <c r="D315" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H315" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -7919,18 +7929,18 @@
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
       <c r="D316" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H316" s="12">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="28"/>
+        <v>104</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -7940,27 +7950,27 @@
         <v>44835</v>
       </c>
       <c r="B317" s="9">
-        <f t="shared" ref="B317:G317" si="56">SUMPRODUCT(B286:B316,--(MONTH($A286:$A316)=MONTH($A317)))</f>
+        <f t="shared" ref="B317:G317" si="29">SUMPRODUCT(B286:B316,--(MONTH($A286:$A316)=MONTH($A317)))</f>
         <v>0</v>
       </c>
       <c r="C317" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="D317" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E317" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="F317" s="13">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G317" s="13">
-        <f t="shared" si="56"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G317" s="11">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H317" s="13"/>
@@ -7974,18 +7984,18 @@
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
       <c r="D318" s="9">
-        <f t="shared" ref="D318:D319" si="57">SUM(B318:C318)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="11">
-        <f>SUM(E318:F318)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H318" s="12">
-        <f t="shared" ref="H318:H347" si="58">(D318-G318) + IF(H317 ="", H316, H317)</f>
-        <v>110</v>
+        <f t="shared" ref="H318:H347" si="30">(D318-G318) + IF(H317 ="", H316, H317)</f>
+        <v>104</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -7997,18 +8007,18 @@
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
       <c r="D319" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="11">
-        <f>SUM(E319:F319)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H319" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -8020,18 +8030,18 @@
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
       <c r="D320" s="9">
-        <f>SUM(B320:B320)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="11">
-        <f>SUM(F320:F320)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H320" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -8043,18 +8053,18 @@
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
       <c r="D321" s="9">
-        <f t="shared" ref="D321:D335" si="59">SUM(B321:C321)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="11">
-        <f t="shared" ref="G321:G347" si="60">SUM(E321:F321)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H321" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
@@ -8066,18 +8076,18 @@
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
       <c r="D322" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H322" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
@@ -8089,18 +8099,18 @@
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
       <c r="D323" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H323" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -8112,18 +8122,18 @@
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
       <c r="D324" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="D324:D381" si="31">SUM(B324:C324)</f>
         <v>0</v>
       </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H324" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
@@ -8135,18 +8145,18 @@
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
       <c r="D325" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="G325:G381" si="32">SUM(E325:F325)</f>
         <v>0</v>
       </c>
       <c r="H325" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
@@ -8158,18 +8168,18 @@
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
       <c r="D326" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H326" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -8181,18 +8191,18 @@
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
       <c r="D327" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H327" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
@@ -8204,18 +8214,18 @@
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
       <c r="D328" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
       <c r="G328" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H328" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -8227,18 +8237,18 @@
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
       <c r="D329" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H329" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -8250,18 +8260,18 @@
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
       <c r="D330" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H330" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
@@ -8273,18 +8283,18 @@
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
       <c r="D331" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H331" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -8296,18 +8306,18 @@
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
       <c r="D332" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H332" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -8319,18 +8329,18 @@
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
       <c r="D333" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H333" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -8342,18 +8352,18 @@
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
       <c r="D334" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H334" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -8365,18 +8375,18 @@
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
       <c r="D335" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H335" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -8388,18 +8398,18 @@
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
       <c r="D336" s="9">
-        <f>SUM(B336:C336)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H336" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -8411,18 +8421,18 @@
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
       <c r="D337" s="9">
-        <f t="shared" ref="D337:D347" si="61">SUM(B337:C337)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H337" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -8434,18 +8444,18 @@
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
       <c r="D338" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H338" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -8457,18 +8467,18 @@
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
       <c r="D339" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H339" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -8480,18 +8490,18 @@
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
       <c r="D340" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H340" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -8503,18 +8513,18 @@
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
       <c r="D341" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H341" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -8526,18 +8536,18 @@
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
       <c r="D342" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
       <c r="G342" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H342" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -8549,18 +8559,18 @@
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
       <c r="D343" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H343" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -8572,18 +8582,18 @@
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
       <c r="D344" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H344" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -8595,18 +8605,18 @@
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
       <c r="D345" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H345" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -8618,18 +8628,18 @@
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
       <c r="D346" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H346" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -8641,18 +8651,18 @@
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
       <c r="D347" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H347" s="12">
-        <f t="shared" si="58"/>
-        <v>110</v>
+        <f t="shared" si="30"/>
+        <v>104</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -8662,27 +8672,27 @@
         <v>44866</v>
       </c>
       <c r="B348" s="9">
-        <f t="shared" ref="B348:G348" si="62">SUMPRODUCT(B317:B347,--(MONTH($A317:$A347)=MONTH($A348)))</f>
+        <f t="shared" ref="B348:G348" si="33">SUMPRODUCT(B317:B347,--(MONTH($A317:$A347)=MONTH($A348)))</f>
         <v>0</v>
       </c>
       <c r="C348" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="D348" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E348" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F348" s="13">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="G348" s="13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G348" s="11">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H348" s="13"/>
@@ -8696,18 +8706,18 @@
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
       <c r="D349" s="9">
-        <f t="shared" ref="D349:D351" si="63">SUM(B349:C349)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="11">
-        <f>SUM(E349:F349)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H349" s="12">
-        <f t="shared" ref="H349:H379" si="64">(D349-G349) + IF(H348 ="", H347, H348)</f>
-        <v>110</v>
+        <f t="shared" ref="H349:H379" si="34">(D349-G349) + IF(H348 ="", H347, H348)</f>
+        <v>104</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -8719,18 +8729,18 @@
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
       <c r="D350" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="11">
-        <f>SUM(E350:F350)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H350" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -8742,18 +8752,18 @@
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
       <c r="D351" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="11">
-        <f>SUM(E351:F351)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H351" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -8765,18 +8775,18 @@
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
       <c r="D352" s="9">
-        <f>SUM(B352:B352)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="11">
-        <f>SUM(F352:F352)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H352" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -8788,18 +8798,18 @@
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
       <c r="D353" s="9">
-        <f t="shared" ref="D353:D367" si="65">SUM(B353:C353)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="11">
-        <f t="shared" ref="G353:G379" si="66">SUM(E353:F353)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H353" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -8811,18 +8821,18 @@
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
       <c r="D354" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H354" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -8834,18 +8844,18 @@
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
       <c r="D355" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H355" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -8857,18 +8867,18 @@
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
       <c r="D356" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H356" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -8880,18 +8890,18 @@
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
       <c r="D357" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H357" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -8903,18 +8913,18 @@
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
       <c r="D358" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H358" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -8926,18 +8936,18 @@
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
       <c r="D359" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H359" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -8949,18 +8959,18 @@
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
       <c r="D360" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H360" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -8972,18 +8982,18 @@
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
       <c r="D361" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H361" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -8995,18 +9005,18 @@
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
       <c r="D362" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H362" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -9018,18 +9028,18 @@
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
       <c r="D363" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H363" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -9041,18 +9051,18 @@
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
       <c r="D364" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H364" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -9064,18 +9074,18 @@
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
       <c r="D365" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H365" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -9087,18 +9097,18 @@
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
       <c r="D366" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H366" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -9110,18 +9120,18 @@
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
       <c r="D367" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
       <c r="G367" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H367" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -9133,18 +9143,18 @@
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
       <c r="D368" s="9">
-        <f>SUM(B368:C368)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
       <c r="G368" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H368" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -9156,18 +9166,18 @@
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
       <c r="D369" s="9">
-        <f t="shared" ref="D369:D379" si="67">SUM(B369:C369)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
       <c r="G369" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H369" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -9179,18 +9189,18 @@
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
       <c r="D370" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
       <c r="G370" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H370" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -9202,18 +9212,18 @@
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
       <c r="D371" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
       <c r="G371" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H371" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -9225,18 +9235,18 @@
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
       <c r="D372" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
       <c r="G372" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H372" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -9248,18 +9258,18 @@
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
       <c r="D373" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
       <c r="G373" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H373" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -9271,18 +9281,18 @@
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
       <c r="G374" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H374" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -9294,18 +9304,18 @@
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
       <c r="G375" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H375" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -9317,18 +9327,18 @@
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
       <c r="G376" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H376" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -9340,18 +9350,18 @@
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H377" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -9363,18 +9373,18 @@
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
       <c r="D378" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H378" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -9386,18 +9396,18 @@
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
       <c r="D379" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H379" s="12">
-        <f t="shared" si="64"/>
-        <v>110</v>
+        <f t="shared" si="34"/>
+        <v>104</v>
       </c>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -9407,27 +9417,27 @@
         <v>44896</v>
       </c>
       <c r="B380" s="9">
-        <f t="shared" ref="B380:G380" si="68">SUMPRODUCT(B349:B379,--(MONTH($A349:$A379)=MONTH($A380)))</f>
+        <f t="shared" ref="B380:G380" si="35">SUMPRODUCT(B349:B379,--(MONTH($A349:$A379)=MONTH($A380)))</f>
         <v>0</v>
       </c>
       <c r="C380" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D380" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E380" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F380" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="G380" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G380" s="11">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H380" s="13"/>
@@ -9444,23 +9454,23 @@
       </c>
       <c r="C381" s="9">
         <f>SUM(C35,C64,C96,C127,C159,C190,C222,C254,C285,C317,C348,C380)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D381" s="9">
-        <f>SUM(D35,D64,D96,D127,D159,D190,D222,D254,D285,D317,D348,D380)</f>
-        <v>15</v>
+        <f t="shared" si="31"/>
+        <v>25</v>
       </c>
       <c r="E381" s="11">
-        <f t="shared" ref="E381:F381" si="69">SUM(E35,E64,E96,E127,E159,E190,E222,E254,E285,E317,E348,E380)</f>
-        <v>5</v>
+        <f t="shared" ref="E381:F381" si="36">SUM(E35,E64,E96,E127,E159,E190,E222,E254,E285,E317,E348,E380)</f>
+        <v>12</v>
       </c>
       <c r="F381" s="11">
-        <f t="shared" si="69"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>9</v>
       </c>
       <c r="G381" s="11">
-        <f>SUM(G35,G64,G96,G127,G159,G190,G222,G254,G285,G317,G348,G380)</f>
-        <v>5</v>
+        <f t="shared" si="32"/>
+        <v>21</v>
       </c>
       <c r="H381" s="11"/>
       <c r="I381" s="1"/>

--- a/backend/backend-app/src/main/resources/xlsx/user-template.xlsx
+++ b/backend/backend-app/src/main/resources/xlsx/user-template.xlsx
@@ -50,16 +50,16 @@
     <t>Results of the year</t>
   </si>
   <si>
-    <t>inc. type 1</t>
+    <t>inc. category 2</t>
   </si>
   <si>
-    <t>inc. type 2</t>
+    <t>inc. category 1</t>
   </si>
   <si>
-    <t>exp. type 1</t>
+    <t>exp. category 1</t>
   </si>
   <si>
-    <t>exp. type 2</t>
+    <t>exp. category 2</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>44562</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" ref="B35:G35" si="3">SUMPRODUCT(B4:B34,--(MONTH($A4:$A34)=MONTH($A35)))</f>
+        <f t="shared" ref="B35:F35" si="3">SUMPRODUCT(B4:B34,--(MONTH($A4:$A34)=MONTH($A35)))</f>
         <v>10</v>
       </c>
       <c r="C35" s="9">
@@ -2059,7 +2059,7 @@
         <v>44593</v>
       </c>
       <c r="B64" s="9">
-        <f t="shared" ref="B64:G64" si="5">SUMPRODUCT(B33:B63,--(MONTH($A33:$A63)=MONTH($A64)))</f>
+        <f t="shared" ref="B64:F64" si="5">SUMPRODUCT(B33:B63,--(MONTH($A33:$A63)=MONTH($A64)))</f>
         <v>0</v>
       </c>
       <c r="C64" s="9">
@@ -2804,7 +2804,7 @@
         <v>44621</v>
       </c>
       <c r="B96" s="9">
-        <f t="shared" ref="B96:G96" si="9">SUMPRODUCT(B65:B95,--(MONTH($A65:$A95)=MONTH($A96)))</f>
+        <f t="shared" ref="B96:F96" si="9">SUMPRODUCT(B65:B95,--(MONTH($A65:$A95)=MONTH($A96)))</f>
         <v>0</v>
       </c>
       <c r="C96" s="9">
@@ -3526,7 +3526,7 @@
         <v>44652</v>
       </c>
       <c r="B127" s="9">
-        <f t="shared" ref="B127:G127" si="11">SUMPRODUCT(B96:B126,--(MONTH($A96:$A126)=MONTH($A127)))</f>
+        <f t="shared" ref="B127:F127" si="11">SUMPRODUCT(B96:B126,--(MONTH($A96:$A126)=MONTH($A127)))</f>
         <v>0</v>
       </c>
       <c r="C127" s="9">
@@ -4271,7 +4271,7 @@
         <v>44682</v>
       </c>
       <c r="B159" s="9">
-        <f t="shared" ref="B159:G159" si="15">SUMPRODUCT(B128:B158,--(MONTH($A128:$A158)=MONTH($A159)))</f>
+        <f t="shared" ref="B159:F159" si="15">SUMPRODUCT(B128:B158,--(MONTH($A128:$A158)=MONTH($A159)))</f>
         <v>0</v>
       </c>
       <c r="C159" s="9">
@@ -4993,7 +4993,7 @@
         <v>44713</v>
       </c>
       <c r="B190" s="9">
-        <f t="shared" ref="B190:G190" si="17">SUMPRODUCT(B159:B189,--(MONTH($A159:$A189)=MONTH($A190)))</f>
+        <f t="shared" ref="B190:F190" si="17">SUMPRODUCT(B159:B189,--(MONTH($A159:$A189)=MONTH($A190)))</f>
         <v>0</v>
       </c>
       <c r="C190" s="9">
@@ -5738,7 +5738,7 @@
         <v>44743</v>
       </c>
       <c r="B222" s="9">
-        <f t="shared" ref="B222:G222" si="21">SUMPRODUCT(B191:B221,--(MONTH($A191:$A221)=MONTH($A222)))</f>
+        <f t="shared" ref="B222:F222" si="21">SUMPRODUCT(B191:B221,--(MONTH($A191:$A221)=MONTH($A222)))</f>
         <v>0</v>
       </c>
       <c r="C222" s="9">
@@ -6483,7 +6483,7 @@
         <v>44774</v>
       </c>
       <c r="B254" s="9">
-        <f t="shared" ref="B254:G254" si="23">SUMPRODUCT(B223:B253,--(MONTH($A223:$A253)=MONTH($A254)))</f>
+        <f t="shared" ref="B254:F254" si="23">SUMPRODUCT(B223:B253,--(MONTH($A223:$A253)=MONTH($A254)))</f>
         <v>0</v>
       </c>
       <c r="C254" s="9">
@@ -7205,7 +7205,7 @@
         <v>44805</v>
       </c>
       <c r="B285" s="9">
-        <f t="shared" ref="B285:G285" si="27">SUMPRODUCT(B254:B284,--(MONTH($A254:$A284)=MONTH($A285)))</f>
+        <f t="shared" ref="B285:F285" si="27">SUMPRODUCT(B254:B284,--(MONTH($A254:$A284)=MONTH($A285)))</f>
         <v>0</v>
       </c>
       <c r="C285" s="9">
@@ -7950,7 +7950,7 @@
         <v>44835</v>
       </c>
       <c r="B317" s="9">
-        <f t="shared" ref="B317:G317" si="29">SUMPRODUCT(B286:B316,--(MONTH($A286:$A316)=MONTH($A317)))</f>
+        <f t="shared" ref="B317:F317" si="29">SUMPRODUCT(B286:B316,--(MONTH($A286:$A316)=MONTH($A317)))</f>
         <v>0</v>
       </c>
       <c r="C317" s="9">
@@ -8672,7 +8672,7 @@
         <v>44866</v>
       </c>
       <c r="B348" s="9">
-        <f t="shared" ref="B348:G348" si="33">SUMPRODUCT(B317:B347,--(MONTH($A317:$A347)=MONTH($A348)))</f>
+        <f t="shared" ref="B348:F348" si="33">SUMPRODUCT(B317:B347,--(MONTH($A317:$A347)=MONTH($A348)))</f>
         <v>0</v>
       </c>
       <c r="C348" s="9">
@@ -9417,7 +9417,7 @@
         <v>44896</v>
       </c>
       <c r="B380" s="9">
-        <f t="shared" ref="B380:G380" si="35">SUMPRODUCT(B349:B379,--(MONTH($A349:$A379)=MONTH($A380)))</f>
+        <f t="shared" ref="B380:F380" si="35">SUMPRODUCT(B349:B379,--(MONTH($A349:$A379)=MONTH($A380)))</f>
         <v>0</v>
       </c>
       <c r="C380" s="9">
